--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
-    <t xml:space="preserve">Меню</t>
+    <t xml:space="preserve">Меню*</t>
   </si>
   <si>
     <t xml:space="preserve">Основное меню</t>
@@ -274,12 +274,12 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.71"/>

--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
-    <t xml:space="preserve">Меню*</t>
+    <t xml:space="preserve">Меню –</t>
   </si>
   <si>
     <t xml:space="preserve">Основное меню</t>
@@ -273,8 +273,8 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
-    <t xml:space="preserve">Меню –</t>
+    <t xml:space="preserve">Менюaaa</t>
   </si>
   <si>
     <t xml:space="preserve">Основное меню</t>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">К пиву</t>
   </si>
   <si>
-    <t xml:space="preserve">Сельдь Бисмарк</t>
+    <t xml:space="preserve">Сельдь Бисмарк XXX</t>
   </si>
   <si>
     <t xml:space="preserve">Традиционное немецкое блюдо из маринованной сельди</t>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Нарезка из креветок, кальмаров, раковых шеек, гребешков, лосося, скумбрии и красной икры</t>
   </si>
   <si>
-    <t xml:space="preserve">Рамен</t>
+    <t xml:space="preserve">Рамен XXX</t>
   </si>
   <si>
     <t xml:space="preserve">Горячий рамен</t>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">Рамен на насыщенном сырном бульоне на основе кокосового молока, с добавлением куриной грудинки, яично - пшеничной лапши, мисо-матадоре, ростков зелени, листьев вакамэ</t>
   </si>
   <si>
-    <t xml:space="preserve">Алкогольное меню</t>
+    <t xml:space="preserve">Алкогольное XXXменю</t>
   </si>
   <si>
     <t xml:space="preserve">Алкогольные напитки</t>

--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -20,12 +20,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t xml:space="preserve">Менюaaa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основное меню</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+  <si>
+    <t xml:space="preserve">Меню </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Основное меню </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">XXX</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Холодные закуски</t>
@@ -34,7 +55,7 @@
     <t xml:space="preserve">К пиву</t>
   </si>
   <si>
-    <t xml:space="preserve">Сельдь Бисмарк XXX</t>
+    <t xml:space="preserve">Сельдь Бисмарк</t>
   </si>
   <si>
     <t xml:space="preserve">Традиционное немецкое блюдо из маринованной сельди</t>
@@ -52,7 +73,7 @@
     <t xml:space="preserve">Нарезка из креветок, кальмаров, раковых шеек, гребешков, лосося, скумбрии и красной икры</t>
   </si>
   <si>
-    <t xml:space="preserve">Рамен XXX</t>
+    <t xml:space="preserve">Рамен</t>
   </si>
   <si>
     <t xml:space="preserve">Горячий рамен</t>
@@ -76,10 +97,42 @@
     <t xml:space="preserve">Рамен на насыщенном сырном бульоне на основе кокосового молока, с добавлением куриной грудинки, яично - пшеничной лапши, мисо-матадоре, ростков зелени, листьев вакамэ</t>
   </si>
   <si>
-    <t xml:space="preserve">Алкогольное XXXменю</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алкогольные напитки</t>
+    <t xml:space="preserve">Алкогольное меню</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Алкогольные ZZZ </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">напитки</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Красные вина</t>
@@ -128,6 +181,21 @@
   </si>
   <si>
     <t xml:space="preserve">Это купаж высококачественных солодовых и зерновых виски, выдержанных как минимум в течение 12 лет, что придает напитку роскошные нотки меда, ванили и спелых яблок.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfqwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zxcasd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vvv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ttt</t>
   </si>
 </sst>
 </file>
@@ -137,7 +205,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -170,6 +238,14 @@
       <name val="Montserrat"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Montserrat"/>
+      <family val="0"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -273,8 +349,8 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -563,9 +639,39 @@
         <v>520.08</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -20,33 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
-  <si>
-    <t xml:space="preserve">Меню </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Montserrat"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Основное меню </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Montserrat"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">XXX</t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t xml:space="preserve">Меню</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основное меню</t>
   </si>
   <si>
     <t xml:space="preserve">Холодные закуски</t>
@@ -100,39 +79,7 @@
     <t xml:space="preserve">Алкогольное меню</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Montserrat"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Алкогольные ZZZ </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Montserrat"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Montserrat"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">напитки</t>
-    </r>
+    <t xml:space="preserve">Алкогольные напитки</t>
   </si>
   <si>
     <t xml:space="preserve">Красные вина</t>
@@ -181,21 +128,6 @@
   </si>
   <si>
     <t xml:space="preserve">Это купаж высококачественных солодовых и зерновых виски, выдержанных как минимум в течение 12 лет, что придает напитку роскошные нотки меда, ванили и спелых яблок.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfqwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zxcasd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vvv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ttt</t>
   </si>
 </sst>
 </file>
@@ -297,7 +229,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -330,6 +262,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,10 +283,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -516,7 +452,7 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="2" t="n">
         <v>1</v>
       </c>
@@ -639,39 +575,9 @@
         <v>520.08</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1651,6 +1557,7 @@
     <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -22,10 +22,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
-    <t xml:space="preserve">Меню</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основное меню</t>
+    <t xml:space="preserve">Меню </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Основное меню </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">ZZZ</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Холодные закуски</t>
@@ -34,7 +55,7 @@
     <t xml:space="preserve">К пиву</t>
   </si>
   <si>
-    <t xml:space="preserve">Сельдь Бисмарк</t>
+    <t xml:space="preserve">Сельдь Бисмарк XXX</t>
   </si>
   <si>
     <t xml:space="preserve">Традиционное немецкое блюдо из маринованной сельди</t>
@@ -82,7 +103,28 @@
     <t xml:space="preserve">Алкогольные напитки</t>
   </si>
   <si>
-    <t xml:space="preserve">Красные вина</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Красные вина </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">VVV</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Для романтичного вечера</t>
@@ -106,7 +148,7 @@
     <t xml:space="preserve">Вино красное — элегантное, комплексное, не выдержанное в дубе</t>
   </si>
   <si>
-    <t xml:space="preserve">Виски</t>
+    <t xml:space="preserve">Виски WWW</t>
   </si>
   <si>
     <t xml:space="preserve">Для интересных бесед</t>
@@ -124,7 +166,7 @@
     <t xml:space="preserve">Характерен мягкий вкус, сочетает в себе карамельно-ванильные и древесные нотки. Легкий привкус дыма.</t>
   </si>
   <si>
-    <t xml:space="preserve">Чивас Ригал</t>
+    <t xml:space="preserve">Чивас Ригал  ZZZ</t>
   </si>
   <si>
     <t xml:space="preserve">Это купаж высококачественных солодовых и зерновых виски, выдержанных как минимум в течение 12 лет, что придает напитку роскошные нотки меда, ванили и спелых яблок.</t>
@@ -283,10 +325,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -342,6 +384,9 @@
       <c r="F3" s="6" t="n">
         <v>182.99</v>
       </c>
+      <c r="G3" s="0" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
@@ -358,6 +403,9 @@
       <c r="F4" s="6" t="n">
         <v>215.36</v>
       </c>
+      <c r="G4" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
@@ -374,6 +422,9 @@
       <c r="F5" s="6" t="n">
         <v>265.57</v>
       </c>
+      <c r="G5" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
@@ -573,6 +624,9 @@
       </c>
       <c r="F18" s="2" t="n">
         <v>520.08</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -25,6 +25,66 @@
     <t xml:space="preserve">Меню </t>
   </si>
   <si>
+    <t xml:space="preserve">Основное меню </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодные закуски</t>
+  </si>
+  <si>
+    <t xml:space="preserve">К пиву</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сельдь Бисмарк XXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Традиционное немецкое блюдо из маринованной сельди</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мясная тарелка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нарезка из ветчины, колбасных колечек, нескольких сортов сыра и фруктов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рыбная тарелка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нарезка из креветок, кальмаров, раковых шеек, гребешков, лосося, скумбрии и красной икры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рамен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Горячий рамен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дайзу рамен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рамен на курином бульоне с куриными подушками и яйцом аджитама, яично-пшеничной лапшой, ростки зелени, грибами муэр и зеленым луком</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Унаги рамен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рамен на нежном сливочном рыбном бульоне, с добавлением маринованного угря, грибов муэр, кунжута, зеленого лука</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чиизу Рамен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рамен на насыщенном сырном бульоне на основе кокосового молока, с добавлением куриной грудинки, яично - пшеничной лапши, мисо-матадоре, ростков зелени, листьев вакамэ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алкогольное меню</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алкогольные напитки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Красные вина </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -34,85 +94,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Основное меню </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Montserrat"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">ZZZ</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодные закуски</t>
-  </si>
-  <si>
-    <t xml:space="preserve">К пиву</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сельдь Бисмарк XXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Традиционное немецкое блюдо из маринованной сельди</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мясная тарелка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нарезка из ветчины, колбасных колечек, нескольких сортов сыра и фруктов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рыбная тарелка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нарезка из креветок, кальмаров, раковых шеек, гребешков, лосося, скумбрии и красной икры</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рамен</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Горячий рамен</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дайзу рамен</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рамен на курином бульоне с куриными подушками и яйцом аджитама, яично-пшеничной лапшой, ростки зелени, грибами муэр и зеленым луком</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Унаги рамен</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рамен на нежном сливочном рыбном бульоне, с добавлением маринованного угря, грибов муэр, кунжута, зеленого лука</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чиизу Рамен</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рамен на насыщенном сырном бульоне на основе кокосового молока, с добавлением куриной грудинки, яично - пшеничной лапши, мисо-матадоре, ростков зелени, листьев вакамэ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алкогольное меню</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алкогольные напитки</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Montserrat"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Красные вина </t>
+      <t xml:space="preserve">Для романтичного вечера </t>
     </r>
     <r>
       <rPr>
@@ -125,9 +107,6 @@
       </rPr>
       <t xml:space="preserve">VVV</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Для романтичного вечера</t>
   </si>
   <si>
     <t xml:space="preserve">Шемен де Пап ля Ноблесс</t>
@@ -328,7 +307,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -22,16 +22,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
-    <t xml:space="preserve">Меню </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основное меню </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодные закуски</t>
-  </si>
-  <si>
-    <t xml:space="preserve">К пиву</t>
+    <t xml:space="preserve">Меню SSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основное меню FFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодные xxx закуски</t>
+  </si>
+  <si>
+    <t xml:space="preserve">К  vvv пиву</t>
   </si>
   <si>
     <t xml:space="preserve">Сельдь Бисмарк XXX</t>
@@ -76,10 +76,10 @@
     <t xml:space="preserve">Рамен на насыщенном сырном бульоне на основе кокосового молока, с добавлением куриной грудинки, яично - пшеничной лапши, мисо-матадоре, ростков зелени, листьев вакамэ</t>
   </si>
   <si>
-    <t xml:space="preserve">Алкогольное меню</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алкогольные напитки</t>
+    <t xml:space="preserve">Алкогольное  RRR меню</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алкогольные GGG  напитки</t>
   </si>
   <si>
     <t xml:space="preserve">Красные вина </t>
@@ -127,7 +127,7 @@
     <t xml:space="preserve">Вино красное — элегантное, комплексное, не выдержанное в дубе</t>
   </si>
   <si>
-    <t xml:space="preserve">Виски WWW</t>
+    <t xml:space="preserve">Виски </t>
   </si>
   <si>
     <t xml:space="preserve">Для интересных бесед</t>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">Характерен мягкий вкус, сочетает в себе карамельно-ванильные и древесные нотки. Легкий привкус дыма.</t>
   </si>
   <si>
-    <t xml:space="preserve">Чивас Ригал  ZZZ</t>
+    <t xml:space="preserve">Чивас Ригал  </t>
   </si>
   <si>
     <t xml:space="preserve">Это купаж высококачественных солодовых и зерновых виски, выдержанных как минимум в течение 12 лет, что придает напитку роскошные нотки меда, ванили и спелых яблок.</t>
@@ -306,8 +306,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -364,7 +364,7 @@
         <v>182.99</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -605,7 +605,7 @@
         <v>520.08</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
